--- a/dataset-2/2-with_data_augmentation/results/smote.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/smote.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.7777777777777778</v>
+        <v>0.3763440860215054</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="D2">
-        <v>0.8750000000000001</v>
+        <v>0.4635761589403973</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.8571428571428571</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C3">
-        <v>0.8571428571428571</v>
+        <v>0.9827586206896551</v>
       </c>
       <c r="D3">
-        <v>0.8571428571428571</v>
+        <v>0.9193548387096775</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.6708860759493671</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="D4">
-        <v>0.7999999999999999</v>
+        <v>0.7737226277372264</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.875</v>
+        <v>0.4038461538461539</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="D5">
-        <v>0.9333333333333333</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="D6">
-        <v>0.8750000000000001</v>
+        <v>0.796875</v>
       </c>
     </row>
   </sheetData>

--- a/dataset-2/2-with_data_augmentation/results/smote.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/smote.xlsx
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.6708860759493671</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C4">
         <v>0.9137931034482759</v>
       </c>
       <c r="D4">
-        <v>0.7737226277372264</v>
+        <v>0.8091603053435115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7285714285714285</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="C6">
-        <v>0.8793103448275862</v>
+        <v>0.9137931034482759</v>
       </c>
       <c r="D6">
-        <v>0.796875</v>
+        <v>0.7851851851851852</v>
       </c>
     </row>
   </sheetData>
